--- a/outputs/OEV/clubs_uniques_mois_passe.xlsx
+++ b/outputs/OEV/clubs_uniques_mois_passe.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
